--- a/manualParams/DB_RVE_14_0_D_converging_params.xlsx
+++ b/manualParams/DB_RVE_14_0_D_converging_params.xlsx
@@ -114,13 +114,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,29 +166,23 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -525,26 +519,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -619,10 +613,10 @@
       <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -652,7 +646,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -665,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="10"/>
+      <c r="T3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -698,7 +692,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="9"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -711,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="7"/>
-      <c r="T4" s="10"/>
+      <c r="T4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -744,7 +738,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="9"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -757,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="10"/>
+      <c r="T5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -790,7 +784,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="9"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -803,10 +797,10 @@
         <v>0.05</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="10"/>
+      <c r="T6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -836,7 +830,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="6" t="s">
@@ -849,10 +843,10 @@
         <v>0.05</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="10"/>
+      <c r="T7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -882,7 +876,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -895,7 +889,7 @@
         <v>0.05</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="10"/>
+      <c r="T8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
@@ -956,312 +950,312 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>35</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>21</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>1.65</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.06</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>0.2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>87</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>0.3</v>
       </c>
       <c r="K10" s="12">
         <v>0.16</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <v>1.6</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>2.85</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>7</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>148</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>19</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="12">
         <v>0.4</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="12">
         <v>1.3</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="13">
         <v>1.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>30</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>1.25</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>0.19</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>0.7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>83</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>0.8</v>
       </c>
       <c r="K11" s="12">
         <v>0.11</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>1.65</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>2</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>7</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>174</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>10</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="12">
         <v>0.9</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="12">
         <v>1.9</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="13">
         <v>1.35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>17</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>8</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0.3</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>1.55</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>0.02</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>0.12</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>50</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>0.18</v>
       </c>
       <c r="K12" s="12">
         <v>0.36</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="12">
         <v>1.35</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>2.05</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>13</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>162</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>30</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="12">
         <v>0.8</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="12">
         <v>1.95</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="12">
         <v>1.58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>33</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>26</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>0.85</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0.33</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>0.31</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>94</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>0.81</v>
       </c>
       <c r="K13" s="12">
         <v>0.11</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <v>1.05</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>2.3</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>4</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>161</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>20</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <v>0.75</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>1</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="11">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>18</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>0.9</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>1.65</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>0.34</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>0.49</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <v>79</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>0.05</v>
       </c>
       <c r="K14" s="12">
         <v>0.21</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <v>1.5</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <v>2</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>9</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <v>145</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>31</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="12">
         <v>0.4</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="12">
         <v>1.9</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="12">
         <v>2.95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>26</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>10</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>0.7</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>1.7</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>0.17</v>
       </c>
       <c r="G15" s="4"/>
@@ -1277,49 +1271,49 @@
       <c r="K15" s="12">
         <v>0.41</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <v>1.7</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <v>2.35</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>23</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <v>187</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>46</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="12">
         <v>0.2</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="12">
         <v>1.95</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="12">
         <v>1.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>36</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>0.7</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>1.8</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>0.38</v>
       </c>
       <c r="G16" s="4"/>
@@ -1332,52 +1326,52 @@
       <c r="J16" s="12">
         <v>0.34</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="12">
         <v>0.26</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="12">
         <v>1.25</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="12">
         <v>1.3</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>19</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <v>104</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>46</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="12">
         <v>0.35</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="12">
         <v>1.95</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="12">
         <v>2.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>44</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>8</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>0.95</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>1.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0.39</v>
       </c>
       <c r="G17" s="4"/>
@@ -1393,49 +1387,49 @@
       <c r="K17" s="12">
         <v>0.46</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="12">
         <v>1.7</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>2.75</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>1</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>181</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>2</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="12">
         <v>0.5</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="12">
         <v>1.85</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="12">
         <v>1.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>26</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>38</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>0.45</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>1.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>0.19</v>
       </c>
       <c r="G18" s="4"/>
@@ -1451,49 +1445,49 @@
       <c r="K18" s="12">
         <v>0.11</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>1</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>2</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>3</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>127</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>37</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="12">
         <v>0.25</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>1</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="12">
         <v>1.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>10</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>50</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>38</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>0.15</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1.85</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>0.21</v>
       </c>
       <c r="G19" s="4"/>
@@ -1509,49 +1503,49 @@
       <c r="K19" s="12">
         <v>0.18</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>1.45</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>2</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>1</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>162</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>19</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="12">
         <v>0.55</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="12">
         <v>1.8</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="12">
         <v>1.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>4</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>37</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>25</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>0.25</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>0.28</v>
       </c>
       <c r="G20" s="4"/>
@@ -1567,49 +1561,49 @@
       <c r="K20" s="12">
         <v>0.12</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="12">
         <v>1.2</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="12">
         <v>2.85</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>23</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>184</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>19</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="12">
         <v>0.2</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="12">
         <v>1.95</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="11">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>6</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>42</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>9</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>0.95</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>1.6</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>0.12</v>
       </c>
       <c r="G21" s="4"/>
@@ -1625,49 +1619,49 @@
       <c r="K21" s="12">
         <v>0.38</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="12">
         <v>1.5</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="12">
         <v>1.65</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>2</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>105</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>44</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="12">
         <v>0.95</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="12">
         <v>1.4</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>37</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>7</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>0.85</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>1.55</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>0.34</v>
       </c>
       <c r="G22" s="4"/>
@@ -1683,49 +1677,49 @@
       <c r="K22" s="12">
         <v>0.48</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="12">
         <v>1.55</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="12">
         <v>2.85</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>10</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>101</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>20</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="12">
         <v>0.1</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="12">
         <v>1.25</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="12">
         <v>1.15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>7</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>49</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>40</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>0.4</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>1.75</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>0.13</v>
       </c>
       <c r="G23" s="4"/>
@@ -1741,49 +1735,49 @@
       <c r="K23" s="12">
         <v>0.29</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="12">
         <v>1.4</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="12">
         <v>2.2</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="13">
+      <c r="O23" s="11">
         <v>2</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>168</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="11">
         <v>27</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="12">
         <v>0.3</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="11">
         <v>2</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="11">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>30</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>42</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>0.25</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>1.6</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>0.19</v>
       </c>
       <c r="G24" s="4"/>
@@ -1799,49 +1793,49 @@
       <c r="K24" s="12">
         <v>0.42</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="12">
         <v>1.25</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="12">
         <v>2.9</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>3</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>108</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>42</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="12">
         <v>0.25</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="12">
         <v>1.2</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="12">
         <v>2.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>36</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>50</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>0.6</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>1.2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>0.45</v>
       </c>
       <c r="G25" s="4"/>
@@ -1857,49 +1851,49 @@
       <c r="K25" s="12">
         <v>0.19</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="12">
         <v>1.35</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="12">
         <v>1.35</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="13">
+      <c r="O25" s="11">
         <v>6</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>196</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="11">
         <v>41</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="12">
         <v>0.5</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="12">
         <v>1.1</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="12">
         <v>2.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>33</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>29</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>0.35</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>0.07</v>
       </c>
       <c r="G26" s="4"/>
@@ -1915,49 +1909,49 @@
       <c r="K26" s="12">
         <v>0.35</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="12">
         <v>1.05</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="11">
         <v>2</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="13">
+      <c r="O26" s="11">
         <v>4</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>191</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>12</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="12">
         <v>0.45</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="11">
         <v>1</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="12">
         <v>2.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>28</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>16</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>0.65</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>1.1</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>0.05</v>
       </c>
       <c r="G27" s="4"/>
@@ -1973,49 +1967,49 @@
       <c r="K27" s="12">
         <v>0.3</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="12">
         <v>1.75</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="12">
         <v>1.9</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="13">
+      <c r="O27" s="11">
         <v>5</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>178</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="11">
         <v>14</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="12">
         <v>0.3</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="12">
         <v>1.6</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="12">
         <v>1.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>33</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>0.65</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>1.85</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="13">
         <v>0.03</v>
       </c>
       <c r="G28" s="4"/>
@@ -2031,49 +2025,49 @@
       <c r="K28" s="12">
         <v>0.35</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="12">
         <v>1.25</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="12">
         <v>1.7</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>1</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>162</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <v>19</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="12">
         <v>0.55</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="12">
         <v>1.8</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="12">
         <v>1.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>37</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>40</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>0.7</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>1.75</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <v>0.23</v>
       </c>
       <c r="G29" s="4"/>
@@ -2089,49 +2083,49 @@
       <c r="K29" s="12">
         <v>0.15</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="12">
         <v>1.75</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="12">
         <v>2.75</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>23</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>184</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>19</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="12">
         <v>0.2</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="12">
         <v>1.95</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="11">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>50</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>0.9</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>1.05</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>0.43</v>
       </c>
       <c r="G30" s="4"/>
@@ -2147,49 +2141,49 @@
       <c r="K30" s="12">
         <v>0.17</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="12">
         <v>1.55</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="12">
         <v>1.05</v>
       </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="13">
+      <c r="O30" s="11">
         <v>2</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <v>105</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="11">
         <v>44</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="12">
         <v>0.95</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="12">
         <v>1.4</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>45</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>30</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>0.15</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>1.1</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>0.38</v>
       </c>
       <c r="G31" s="4"/>
@@ -2205,49 +2199,49 @@
       <c r="K31" s="12">
         <v>0.45</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="12">
         <v>1.45</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="12">
         <v>1.7</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>10</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>101</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="11">
         <v>20</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="12">
         <v>0.1</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="12">
         <v>1.25</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="12">
         <v>1.15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>46</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>13</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>0.8</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>1.9</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <v>0.18</v>
       </c>
       <c r="G32" s="4"/>
@@ -2263,49 +2257,49 @@
       <c r="K32" s="12">
         <v>0.16</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="12">
         <v>1.5</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="11">
         <v>1</v>
       </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="13">
+      <c r="O32" s="11">
         <v>2</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <v>168</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="11">
         <v>27</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="12">
         <v>0.3</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="11">
         <v>2</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="11">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>2</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>22</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>0.35</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>1.55</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="13">
         <v>0.44</v>
       </c>
       <c r="G33" s="4"/>
@@ -2321,49 +2315,49 @@
       <c r="K33" s="12">
         <v>0.24</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="12">
         <v>1.45</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="12">
         <v>1.35</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="13">
+      <c r="O33" s="11">
         <v>3</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <v>108</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="11">
         <v>42</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="12">
         <v>0.25</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="12">
         <v>1.2</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="12">
         <v>2.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>36</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>11</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>0.45</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>1.45</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <v>0.26</v>
       </c>
       <c r="G34" s="4"/>
@@ -2379,49 +2373,49 @@
       <c r="K34" s="12">
         <v>0.33</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="12">
         <v>1.7</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="12">
         <v>1.8</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <v>6</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <v>196</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="11">
         <v>41</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="12">
         <v>0.5</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="12">
         <v>1.1</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="12">
         <v>2.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>2</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>7</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>3</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>0.85</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>1.7</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <v>0.36</v>
       </c>
       <c r="G35" s="4"/>
@@ -2437,49 +2431,49 @@
       <c r="K35" s="12">
         <v>0.44</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="12">
         <v>1.9</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <v>2</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <v>4</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>191</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>12</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="12">
         <v>0.45</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="11">
         <v>1</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="12">
         <v>2.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>5</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>50</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>37</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>0.15</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>1.05</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="13">
         <v>0.35</v>
       </c>
       <c r="G36" s="4"/>
@@ -2495,49 +2489,49 @@
       <c r="K36" s="12">
         <v>0.39</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="12">
         <v>1.1</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="12">
         <v>2.25</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <v>5</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <v>178</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="11">
         <v>14</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="12">
         <v>0.3</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="12">
         <v>1.6</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="12">
         <v>1.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>36</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>48</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>0.9</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>1.35</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="13">
         <v>0.29</v>
       </c>
       <c r="G37" s="4"/>
@@ -2553,49 +2547,49 @@
       <c r="K37" s="12">
         <v>0.29</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="12">
         <v>1.45</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="12">
         <v>2.05</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="13">
+      <c r="O37" s="11">
         <v>6</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>189</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="11">
         <v>24</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="12">
         <v>0.35</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="12">
         <v>1.8</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="12">
         <v>2.65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>3</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>27</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>21</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>0.15</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>1.85</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="13">
         <v>0.12</v>
       </c>
       <c r="G38" s="4"/>
@@ -2611,49 +2605,49 @@
       <c r="K38" s="12">
         <v>0.22</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="12">
         <v>1.85</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="12">
         <v>2.65</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <v>4</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>139</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="11">
         <v>21</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="12">
         <v>0.6</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="12">
         <v>1.85</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="12">
         <v>1.35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>16</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>50</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>32</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>0.55</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>1.35</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>0.02</v>
       </c>
       <c r="G39" s="4"/>
@@ -2669,49 +2663,49 @@
       <c r="K39" s="12">
         <v>0.37</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="12">
         <v>1.65</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="12">
         <v>1.4</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>5</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>115</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="11">
         <v>7</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="12">
         <v>0.9</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="12">
         <v>1.2</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="12">
         <v>2.95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>1</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>20</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>18</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>0.45</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
         <v>1.2</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <v>0.41</v>
       </c>
       <c r="G40" s="4"/>
@@ -2727,29 +2721,29 @@
       <c r="K40" s="12">
         <v>0.39</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="12">
         <v>1.5</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="12">
         <v>2.25</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="O40" s="13">
+      <c r="O40" s="11">
         <v>2</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <v>148</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="11">
         <v>20</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="12">
         <v>0.7</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40" s="12">
         <v>1.95</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="12">
         <v>2.7</v>
       </c>
     </row>
@@ -2757,8 +2751,8 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
       <c r="H41" s="12">
@@ -2773,26 +2767,26 @@
       <c r="K41" s="12">
         <v>0.46</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="12">
         <v>1.4</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="12">
         <v>1.4</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
       <c r="H42" s="12">
@@ -2807,19 +2801,19 @@
       <c r="K42" s="12">
         <v>0.36</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="12">
         <v>1.45</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="12">
         <v>2.4</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
